--- a/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Stills - IC</t>
   </si>
   <si>
-    <t xml:space="preserve">COMBO'S &amp; ACTIVATION</t>
+    <t xml:space="preserve">COMBOS &amp; ACTIVATION</t>
   </si>
   <si>
     <t xml:space="preserve">Menu Combos</t>
@@ -476,7 +476,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -498,12 +498,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -568,7 +562,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -592,12 +586,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -618,11 +608,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,7 +656,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -691,14 +677,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -770,18 +755,18 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="35.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.353488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="36.9209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,7 +844,7 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -883,7 +868,7 @@
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -907,7 +892,7 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -976,7 +961,7 @@
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -996,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1111,51 +1096,51 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4511627906977"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.1767441860465"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.3162790697674"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.6558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="61.1627906976744"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -1173,7 +1158,7 @@
       <c r="E2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -1205,73 +1190,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.353488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="67.8093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="50.4558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="69.7767441860465"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="51.9302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1291,13 +1275,13 @@
       <c r="E2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1308,34 +1292,34 @@
       <c r="B3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1346,26 +1330,26 @@
       <c r="B4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1379,13 +1363,13 @@
       <c r="J5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1399,13 +1383,13 @@
       <c r="J6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1419,13 +1403,13 @@
       <c r="J7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1439,13 +1423,13 @@
       <c r="J8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1459,13 +1443,13 @@
       <c r="J9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1479,13 +1463,13 @@
       <c r="J10" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1499,13 +1483,13 @@
       <c r="J11" s="0" t="n">
         <v>10.5</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1519,13 +1503,13 @@
       <c r="J12" s="0" t="n">
         <v>12.99</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1539,13 +1523,13 @@
       <c r="J13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1559,7 +1543,7 @@
       <c r="D14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>80</v>
       </c>
       <c r="J14" s="0" t="n">
@@ -1568,13 +1552,13 @@
       <c r="K14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1585,20 +1569,20 @@
       <c r="B15" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="13"/>
       <c r="J15" s="0" t="n">
         <v>17</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1627,40 +1611,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.4837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.8558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6976744186047"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.5767441860465"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1674,40 +1658,40 @@
       <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -1719,43 +1703,43 @@
       <c r="C5" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -1764,7 +1748,7 @@
       <c r="C8" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1787,569 +1771,569 @@
   </sheetPr>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.4325581395349"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="93.6511627906977"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.386046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="96.4790697674419"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.62790697674419"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="60.9162790697674"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02790697674419"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="62.6372093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="9"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10" t="s">
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10" t="s">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="9"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="n">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10" t="s">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="21" t="n">
+      <c r="H10" s="20" t="n">
         <v>330500</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10" t="s">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10" t="s">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="21" t="n">
+      <c r="H13" s="20" t="n">
         <v>330500</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10" t="s">
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2378,81 +2362,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.8511627906977"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.9023255813953"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.1348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.0093023255814"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.7488372093023"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2499,7 +2483,7 @@
       <c r="N2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
@@ -2537,7 +2521,7 @@
       <c r="N3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
@@ -2572,38 +2556,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="147">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -76,43 +76,46 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
+    <t xml:space="preserve">KEY PACK: Availability, Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills - IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBOS &amp; ACTIVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Combos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Corner Decal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tillpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONUS POINTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability and Pricing</t>
+  </si>
+  <si>
     <t xml:space="preserve">KEY PACK: Availability, Pricing, Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills - IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMBOS &amp; ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Combos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler Corner Decal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tillpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONUS POINTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability and Pricing</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler</t>
@@ -756,17 +759,17 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="36.9209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="37.9023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>15</v>
@@ -1058,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1102,14 +1105,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.6558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="61.1627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.2558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.8837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,28 +1120,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="6"/>
     </row>
@@ -1147,10 +1150,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100</v>
@@ -1159,10 +1162,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1190,20 +1193,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="69.7767441860465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="51.9302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="71.8697674418605"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="53.4093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,78 +1215,78 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,37 +1294,37 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="10" t="n">
         <v>200</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,13 +1332,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1344,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,19 +1362,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,19 +1382,19 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,19 +1402,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,19 +1422,19 @@
         <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,113 +1442,113 @@
         <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>13</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>10.5</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>12.99</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>14</v>
@@ -1553,21 +1557,21 @@
         <v>3</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="13"/>
       <c r="J15" s="0" t="n">
@@ -1577,13 +1581,13 @@
         <v>3</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1611,15 +1615,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6976744186047"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.5767441860465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.0372093023256"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.4232558139535"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,25 +1631,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,13 +1657,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -1668,13 +1672,13 @@
         <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -1683,13 +1687,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -1701,10 +1705,10 @@
         <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -1713,13 +1717,13 @@
         <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -1728,28 +1732,28 @@
         <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1777,23 +1781,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.386046511628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="96.4790697674419"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="105.46511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="99.4325581395349"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.75348837209302"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02790697674419"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="62.6372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="64.4837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,55 +1805,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,19 +1861,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1878,10 +1882,10 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9" t="s">
@@ -1894,22 +1898,22 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1918,10 +1922,10 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9" t="s">
@@ -1934,22 +1938,22 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1958,10 +1962,10 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9" t="s">
@@ -1974,22 +1978,22 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1998,10 +2002,10 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9" t="s">
@@ -2014,22 +2018,22 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -2038,10 +2042,10 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
@@ -2054,22 +2058,22 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2078,10 +2082,10 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
@@ -2097,19 +2101,19 @@
         <v>17</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2118,10 +2122,10 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9" t="s">
@@ -2134,22 +2138,22 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -2160,10 +2164,10 @@
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
@@ -2173,30 +2177,30 @@
         <v>15</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="20" t="n">
         <v>330500</v>
@@ -2205,10 +2209,10 @@
         <v>3</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
@@ -2218,7 +2222,7 @@
         <v>15</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,25 +2230,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>11</v>
@@ -2255,32 +2259,32 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K12" s="9" t="n">
         <v>4</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>11</v>
@@ -2289,30 +2293,30 @@
         <v>15</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="20" t="n">
         <v>330500</v>
@@ -2321,10 +2325,10 @@
         <v>3</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9" t="s">
@@ -2334,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2362,23 +2366,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0697674418605"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.0093023255814"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.4046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.9348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.1162790697674"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4418604651163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.3674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,58 +2390,58 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,37 +2449,37 @@
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>85</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="L2" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>15</v>
@@ -2484,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>11</v>
@@ -2498,22 +2502,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>30</v>
@@ -2522,7 +2526,7 @@
         <v>15</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>11</v>
@@ -2556,7 +2560,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,31 +2568,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,10 @@
     <sheet name="SOS" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Count" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="126">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -43,13 +47,16 @@
     <t xml:space="preserve">Dependancy</t>
   </si>
   <si>
-    <t xml:space="preserve">QSR Affordable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR Mainstream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR Premium</t>
+    <t xml:space="preserve">Bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR AFFORDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR MAINSTREAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR PREMIUM</t>
   </si>
   <si>
     <t xml:space="preserve">COOLER</t>
@@ -115,9 +122,6 @@
     <t xml:space="preserve">Availability and Pricing</t>
   </si>
   <si>
-    <t xml:space="preserve">KEY PACK: Availability, Pricing, Activation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cooler</t>
   </si>
   <si>
@@ -157,7 +161,7 @@
     <t xml:space="preserve">At least one template should pass the planogram for this KPI to pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Template Name </t>
+    <t xml:space="preserve">Template Name</t>
   </si>
   <si>
     <t xml:space="preserve">type1</t>
@@ -190,217 +194,157 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Price communication for all packs in coolers (CCBSA &amp; Dealer Owned Cooler)</t>
+    <t xml:space="preserve">Expected Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey Q CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler consumer facing at point of order, Min 1 Door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 2 Meal Combos: 1 x SSD DIET (300ml PET) and 1 x Stills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFFORDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signage Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 1 x Cooler Corner Decal per Door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic straw holder/Serviette holder/ Menu/ Till Talker/ Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Talker/ Table Cloths/ Condiment sets/Umbrellas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Stills/Energy Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 3 Meal Combos: 1 x SSD and 1 DIET (440ml Can) and 1 x Stills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAINSTREAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min.4: 2 x SSD (440ml PET),1 SSD diet 440 ml PET and 1 x Stills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum straw/ serviette holder/ Menu/ Till Talker/ Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Talker/ Table Cloths. Condiment sets/ Serviettes/ Branded Table/ Parasols/ Umbrellas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type avia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min sku target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Availability of: 300ml PET, 440ml CAN (CC, SP, FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability SKU facing And</t>
   </si>
   <si>
     <t xml:space="preserve">CCBSA Cooler, DOC Cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">manufacturer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO PRODUCTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spaza Affordable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least one price should be present for every unique SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 200ml Can</t>
+    <t xml:space="preserve">product_ean_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availability of: Min 2 SSD Lights or Zeros 300ml PET (CZ), 440ml can (CZ, SZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149,5449000157751,5449000230188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills IC available in (330ml/500ml) BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability SKU facing Or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90492853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills IC available in (330ml/500ml) BAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000117830,5449000117823,5449000117809,5449000117816,5449000117793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills IC available in (330ml/500ml) JJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000211910,5449000211972,5449000212818,5449000212870,5449000211880,5449000211859,5449000212849,5449000212788,5449000212009,5449000211941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills IC available in (330ml/500ml) BURN (Cold)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060466519237,5060466515819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Availability of: 440ml Can (CC, SP, FA, ST), 440ml PET (CC, SP, FA, ST, TW, SPAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000140906,5449000106476,5449000234605,5449000195715,5449000664686,5449000664723,5449000664754,5449000664747,5449000664884,5449000664846,5449000664853,5449000234643,5449000664808,5449000664839,5449000664822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availab of Min 4 SSD 440mlCan/PET (CZ,Coke Life,Coke Light,Sprite Zero,Stoney Zero)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000157751,5449000230188,5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum 4 unique SKUs with 2 facing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Availab: Min 3 Stills 200l/250/330/440/500 (BA,VA,BA,BAP,JJ,FZ,Tiser,PA,PP,Monster,Cappie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONAQUA, VALPRE, JUST JUICE, FUZE, TISER, POWERADE, PLAY, MONSTER</t>
   </si>
   <si>
     <t xml:space="preserve">size</t>
   </si>
   <si>
-    <t xml:space="preserve">brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fanta, coca, sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least one price should reach the needed target or below</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 300ml RGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3434443,232323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 300ml PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 440ml Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 1.5L PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 1.25L PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC Diets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills - Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of Burn 500ml Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pricing Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 2L Sparletta PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6001134087305, 6001134687307, 5449000117977, 5449000166241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 2L Twist or 2.25L Diets PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey Q CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler consumer facing at point of order, Min 1 Door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 3 Meal Combo's: 1 x SSD and 1 DIET and 1 x Stills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signage Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastic straw and serviette holder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table Talker with Promo and Table Cloths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Stills/Energy Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type avia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Availability of: 300ml PET(CC, SP, FA, ST),440ml can (CC, SP, FA, ST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability SKU facing And</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_ean_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affordable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Diets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of: Min 2 SSD Lights or Zeros 300ml PET (Coke zero), 440ml can (Coke zero, Stoney Zero)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90375149,5449000157751,5449000230188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STILLS - IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills IC available in (330ml/500ml) BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability SKU facing Or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90492853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills IC available in (330ml/500ml) BAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000117830,5449000117823,5449000117809,5449000117816,5449000117793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills IC available in (330ml/500ml) JJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000211910,5449000211972,5449000212818,5449000212870,5449000211880,5449000211859,5449000212849,5449000212788,5449000212009,5449000211941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills IC available in (330ml/500ml) BURN (Cold)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466519237,5060466515819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Availability of: 440ml Can (CC, SP, FA, ST), 440ml PET (CC, SP, FA, ST, TW, SPAR) Cold product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000140906,5449000106476,5449000234605,5449000195715,5449000664686,5449000664723,5449000664754,5449000664747,5449000664884,5449000664846,5449000664853,5449000234643,5449000664808,5449000664839,5449000664822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainstream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of: Min 4 SSD 440ml Can/440 PET (Coke zero, Coke Life, Coke Light, Tab, Sprite Zero, Stoney Zero, Fanta Zero) Cold product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000157751,5449000230188,5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum 4 unique SKUs with 2 facing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Availability of: Min 3 Stills Brands/Packs in 330ml/500ml: (BA, VA, BAF, BAP, JJ, FZ,Tiser, PA, PP, Monster (Cold) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONAQUA, VALPRE, JUST JUICE, FUZE, TISER, POWERADE, PLAY, MONSTER</t>
+    <t xml:space="preserve">330,500</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum 3 unique SKUs with 2 facing</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD IC Availability of: 440ml PET (CC, SP, FA, ST),  330ml Can (CC,SP,FA,ST,TW, SPAR) Cold product Cold product</t>
+    <t xml:space="preserve">SSD IC Availab:440ml PET (CC, SP, FA, ST),  330ml Can (CC,SP,FA,ST,SPAR,SCHW)</t>
   </si>
   <si>
     <t xml:space="preserve">5449000664686,5449000664754,5449000234643,5449000664808,5449000000996,5449000069429,5449000011527,5449000003201,5449000106261,5449000140760,5449000171351,5449000246479,5449000106322,5449000106292,5449000234599,5449000106421,5449000140791,5449000046413</t>
   </si>
   <si>
-    <t xml:space="preserve">Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of: Min 4 SSD 440 PET/330ml Can (Coke zero, Coke Life, Coke Light, Tab, Sprite Zero, Stoney Zero, Fanta Zero) Cold product </t>
+    <t xml:space="preserve">SSD Diets Availab: Min 4 SSD 440PET/330Can (CZ,Coke Life,Coke Light,Tab,SpZ,StZ,FZ)</t>
   </si>
   <si>
     <t xml:space="preserve">5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792,5449000052407,5449000050205,5449000131805,5449000120960,5449000106704,5449000006844</t>
@@ -436,7 +380,7 @@
     <t xml:space="preserve">Condition 2 - Target</t>
   </si>
   <si>
-    <t xml:space="preserve">IC Merchandised  ≥85% and FC ≥15%</t>
+    <t xml:space="preserve">IC Merchandised  &gt;=85% and FC &gt;=15%</t>
   </si>
   <si>
     <t xml:space="preserve">IMMEDIATE CONSUMPTION</t>
@@ -451,33 +395,29 @@
     <t xml:space="preserve">FUTURE CONSUMPTION</t>
   </si>
   <si>
-    <t xml:space="preserve">CCBSA SSD's - cold of which Diets/Zeros/Lights≥30%</t>
+    <t xml:space="preserve">CCBSA SSDs - cold of which Diets/Zeros/Lights&gt;=65%</t>
   </si>
   <si>
     <t xml:space="preserve">DIETS</t>
   </si>
   <si>
-    <t xml:space="preserve">Alt. Code 1</t>
+    <t xml:space="preserve">alt_code_1</t>
   </si>
   <si>
     <t xml:space="preserve">SSD</t>
   </si>
   <si>
     <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -516,7 +456,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +479,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -590,7 +536,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -635,11 +581,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -647,16 +593,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -664,15 +614,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -732,7 +686,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -751,25 +705,31 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5162790697674"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="37.9023255813953"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1023255813953"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.9023255813953"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,7 +748,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -797,23 +757,26 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4" t="n">
-        <v>15</v>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>15</v>
@@ -821,41 +784,47 @@
       <c r="H2" s="4" t="n">
         <v>15</v>
       </c>
+      <c r="I2" s="4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="n">
-        <v>10</v>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>10</v>
@@ -863,23 +832,26 @@
       <c r="H4" s="4" t="n">
         <v>10</v>
       </c>
+      <c r="I4" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="n">
-        <v>10</v>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>10</v>
@@ -887,23 +859,26 @@
       <c r="H5" s="4" t="n">
         <v>10</v>
       </c>
+      <c r="I5" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="n">
-        <v>8</v>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>8</v>
@@ -911,47 +886,53 @@
       <c r="H6" s="4" t="n">
         <v>8</v>
       </c>
+      <c r="I6" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>12</v>
       </c>
       <c r="H7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="n">
-        <v>4</v>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>4</v>
@@ -959,23 +940,26 @@
       <c r="H8" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="I8" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="n">
-        <v>2</v>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2</v>
@@ -983,23 +967,26 @@
       <c r="H9" s="4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="n">
-        <v>4</v>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>4</v>
@@ -1007,23 +994,26 @@
       <c r="H10" s="4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="n">
-        <v>4</v>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>4</v>
@@ -1031,23 +1021,26 @@
       <c r="H11" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="I11" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>15</v>
@@ -1055,28 +1048,34 @@
       <c r="H12" s="4" t="n">
         <v>15</v>
       </c>
+      <c r="I12" s="4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="n">
-        <v>10</v>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>10</v>
       </c>
       <c r="H13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1097,17 +1096,17 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.2558139534884"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.6697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.9488372093023"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.35348837209302"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.2139534883721"/>
@@ -1115,7 +1114,7 @@
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1143,11 +1142,10 @@
       <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>39</v>
@@ -1187,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1264,331 +1262,88 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="E15" s="13"/>
-      <c r="J15" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="Q15" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1607,23 +1362,23 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.0372093023256"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="109.525581395349"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.4232558139535"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,126 +1389,315 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>87</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>89</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>41</v>
+      <c r="B11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1773,34 +1717,36 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="105.46511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="99.4325581395349"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.75348837209302"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="64.4837209302326"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="27.4418604651163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.66046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.02790697674419"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.24651162790698"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="34.0883720930233"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1754,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>43</v>
@@ -1816,7 +1762,7 @@
       <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1832,516 +1778,564 @@
         <v>49</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>93</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>96</v>
+        <v>77</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="L2" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="9"/>
       <c r="Q2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
+        <v>12</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="L3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>95</v>
+        <v>77</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="K4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="9"/>
       <c r="Q4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>95</v>
+        <v>77</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="K5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9"/>
       <c r="N5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="9"/>
       <c r="Q5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>95</v>
+        <v>77</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="K6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="9"/>
       <c r="N6" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="9"/>
       <c r="Q6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>95</v>
+        <v>77</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="K7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="9"/>
       <c r="Q7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>112</v>
+        <v>77</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="L8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9"/>
       <c r="N8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="9"/>
       <c r="Q8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="20"/>
+      <c r="K9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="20" t="n">
-        <v>330500</v>
+        <v>99</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>41</v>
+      <c r="L10" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>121</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="L11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="K12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="G13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="20" t="n">
-        <v>330500</v>
+        <v>99</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>41</v>
+      <c r="L13" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="9"/>
       <c r="Q13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>120</v>
+        <v>12</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S13"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2349,6 +2343,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2360,14 +2355,14 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.4046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8558139534884"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8279069767442"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.9348837209302"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4418604651163"/>
@@ -2396,34 +2391,34 @@
         <v>43</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>34</v>
@@ -2446,40 +2441,40 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>85</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>15</v>
@@ -2491,36 +2486,36 @@
         <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>141</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>15</v>
@@ -2529,10 +2524,10 @@
         <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2554,23 +2549,25 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O23" activeCellId="0" sqref="O23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="6" t="s">

--- a/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="127">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -386,13 +387,16 @@
     <t xml:space="preserve">IMMEDIATE CONSUMPTION</t>
   </si>
   <si>
+    <t xml:space="preserve">att1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUTURE CONSUMPTION</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attribute 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUTURE CONSUMPTION</t>
   </si>
   <si>
     <t xml:space="preserve">CCBSA SSDs - cold of which Diets/Zeros/Lights&gt;=65%</t>
@@ -717,19 +721,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1023255813953"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.9023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="39.9953488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="41.2279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,19 +1103,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.6697674418605"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.9488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.8837209302326"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.1488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.7906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="64.7302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,21 +1195,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="71.8697674418605"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="53.4093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="74.0837209302326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="55.0093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,15 +1374,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="109.525581395349"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.4232558139535"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.846511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.1441860465116"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,31 +1723,31 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.306976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.66046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.62790697674419"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.02790697674419"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.24651162790698"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="34.0883720930233"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2651162790698"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="34"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.78604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.75348837209302"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="35.0744186046512"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,29 +2359,29 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8558139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.9348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.1162790697674"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.3674418604651"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.3302325581395"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.1627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.3488372093023"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.106976744186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,7 +2472,7 @@
         <v>120</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>119</v>
@@ -2497,22 +2501,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>65</v>
@@ -2555,9 +2559,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="125">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">Cooler Merchandised as per planogram</t>
   </si>
   <si>
-    <t xml:space="preserve">CCBSA 4 Door Cooler,CCBSA 3 Door Cooler,CCBSA 2 Door Cooler,CCBSA 1 Door Cooler, DOC 4 Door Cooler,DOC 3 Door Cooler,DOC 2 Door Cooler,DOC 1 Door Cooler</t>
+    <t xml:space="preserve">CCBSA 1 DOOR AFFORDABLE BRONZE,CCBSA 1 DOOR MAINSTREAM BRONZE,CCBSA 1 DOOR PREMIUM BRONZE,CCBSA 2 DOOR AFFORDABLE SILVER,CCBSA 2 DOOR MAINSTREAM SILVER,CCBSA 2 DOOR PREMIUM SILVER,CCBSA 3 DOOR AFFORDABLE SILVER,CCBSA 3 DOOR MAINSTREAM SILVER,CCBSA 3 DOOR PREMIUM SILVER,CCBSA 4 DOOR AFFORDABLE GOLD,CCBSA 4 DOOR MAINSTREAM GOLD,CCBSA 4 DOOR PREMIUM GOLD,DOC 1 DOOR AFFORDABLE BRONZE,DOC 1 DOOR MAINSTREAM BRONZE,DOC 1 DOOR PREMIUM BRONZE,DOC 2 DOOR AFFORDABLE SILVER,DOC 2 DOOR MAINSTREAM SILVER,DOC 2 DOOR PREMIUM SILVER,DOC 3 DOOR AFFORDABLE SILVER,DOC 3 DOOR MAINSTREAM SILVER,DOC 3 DOOR PREMIUM SILVER,DOC 4 DOOR AFFORDABLE GOLD,DOC 4 DOOR MAINSTREAM GOLD,DOC 4 DOOR PREMIUM GOLD</t>
   </si>
   <si>
     <t xml:space="preserve">QSR</t>
@@ -264,9 +264,6 @@
     <t xml:space="preserve">Availability SKU facing And</t>
   </si>
   <si>
-    <t xml:space="preserve">CCBSA Cooler, DOC Cooler</t>
-  </si>
-  <si>
     <t xml:space="preserve">product_ean_code</t>
   </si>
   <si>
@@ -394,9 +391,6 @@
   </si>
   <si>
     <t xml:space="preserve">FUTURE CONSUMPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute 1</t>
   </si>
   <si>
     <t xml:space="preserve">CCBSA SSDs - cold of which Diets/Zeros/Lights&gt;=65%</t>
@@ -721,19 +715,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="41.2279069767442"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="42.4558139534884"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,14 +1102,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.1488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.7906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="64.7302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.7488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.218604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="66.6976744186047"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,26 +1184,26 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="74.0837209302326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="55.0093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="76.2976744186047"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="56.6093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,20 +1363,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.846511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.1441860465116"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="116.293023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.9906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,33 +1718,33 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2651162790698"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="34"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.75348837209302"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="35.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.6883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="36.1813953488372"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1820,13 +1814,13 @@
         <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="20"/>
@@ -1857,19 +1851,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="20"/>
@@ -1900,19 +1894,19 @@
         <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="20"/>
@@ -1945,19 +1939,19 @@
         <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="20"/>
@@ -1990,19 +1984,19 @@
         <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="20"/>
@@ -2035,19 +2029,19 @@
         <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="20"/>
@@ -2080,19 +2074,19 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="F8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="20"/>
@@ -2123,19 +2117,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="20"/>
@@ -2160,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2168,25 +2162,25 @@
         <v>21</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>100</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>3</v>
@@ -2208,7 +2202,7 @@
         <v>16</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2216,19 +2210,19 @@
         <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="F11" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="20"/>
       <c r="L11" s="0" t="n">
@@ -2252,19 +2246,19 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>105</v>
       </c>
       <c r="H12" s="20"/>
       <c r="K12" s="0" t="n">
@@ -2287,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2295,25 +2289,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>100</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>3</v>
@@ -2335,7 +2329,7 @@
         <v>16</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2360,28 +2354,28 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.3302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.1627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.3488372093023"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.3023255813953"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.106976744186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.8093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.3953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.5813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.8418604651163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,34 +2389,34 @@
         <v>43</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>34</v>
@@ -2448,37 +2442,37 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>85</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>15</v>
@@ -2501,22 +2495,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>65</v>
@@ -2559,9 +2553,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -405,7 +406,7 @@
     <t xml:space="preserve">SSD</t>
   </si>
   <si>
-    <t xml:space="preserve">Category</t>
+    <t xml:space="preserve">category</t>
   </si>
 </sst>
 </file>
@@ -715,19 +716,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.1162790697674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="42.4558139534884"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="43.6883720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,19 +1098,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.7488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.218604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="66.6976744186047"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.66511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="68.7906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,21 +1190,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="76.2976744186047"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="56.6093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="78.5116279069767"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="58.3302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,20 +1364,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="116.293023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.9906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.739534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.9627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,31 +1718,31 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.6883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.5488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="36.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.02790697674419"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="37.1627906976744"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,29 +2354,29 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.8093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.5488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.3953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.5813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.9348837209302"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,9 +2554,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="124">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -130,7 +131,7 @@
     <t xml:space="preserve">Atomic KPI Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Template Display Name</t>
+    <t xml:space="preserve">Template Name</t>
   </si>
   <si>
     <t xml:space="preserve">Target</t>
@@ -161,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">At least one template should pass the planogram for this KPI to pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template Name</t>
   </si>
   <si>
     <t xml:space="preserve">type1</t>
@@ -721,14 +719,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="43.6883720930233"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1627906976744"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="45.0418604651163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,20 +1095,20 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.66511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="68.7906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="120.106976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="70.7627906976744"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,21 +1188,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="78.5116279069767"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="58.3302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="80.8511627906977"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.0558139534884"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,31 +1213,31 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>35</v>
@@ -1251,13 +1249,13 @@
         <v>37</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1369,15 +1367,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.739534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.9627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="123.432558139535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,16 +1386,16 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>35</v>
@@ -1414,16 +1412,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>41</v>
@@ -1435,22 +1433,22 @@
         <v>23</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,16 +1456,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>41</v>
@@ -1479,16 +1477,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>41</v>
@@ -1500,22 +1498,22 @@
         <v>26</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>36</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,16 +1544,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>41</v>
@@ -1566,22 +1564,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,22 +1587,22 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,22 +1610,22 @@
         <v>26</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,22 +1633,22 @@
         <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,22 +1656,22 @@
         <v>26</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,22 +1679,22 @@
         <v>27</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1724,25 +1722,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="36.0558139534884"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.02790697674419"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="37.1627906976744"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="37.0418604651163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.24651162790698"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="38.1488372093023"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,37 +1751,37 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>35</v>
@@ -1795,13 +1793,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1809,19 +1807,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="20"/>
@@ -1836,7 +1834,7 @@
         <v>41</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9" t="s">
@@ -1852,19 +1850,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="20"/>
@@ -1879,7 +1877,7 @@
         <v>41</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9" t="s">
@@ -1895,19 +1893,19 @@
         <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="20"/>
@@ -1924,7 +1922,7 @@
         <v>41</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9" t="s">
@@ -1940,19 +1938,19 @@
         <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="20"/>
@@ -1969,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9" t="s">
@@ -1985,19 +1983,19 @@
         <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="20"/>
@@ -2014,7 +2012,7 @@
         <v>41</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9" t="s">
@@ -2030,19 +2028,19 @@
         <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="20"/>
@@ -2059,7 +2057,7 @@
         <v>41</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9" t="s">
@@ -2075,19 +2073,19 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="20"/>
@@ -2102,7 +2100,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9" t="s">
@@ -2118,19 +2116,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="20"/>
@@ -2145,7 +2143,7 @@
         <v>41</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
@@ -2155,7 +2153,7 @@
         <v>16</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2163,25 +2161,25 @@
         <v>21</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>3</v>
@@ -2193,7 +2191,7 @@
         <v>41</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
@@ -2203,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2211,19 +2209,19 @@
         <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="20"/>
       <c r="L11" s="0" t="n">
@@ -2233,7 +2231,7 @@
         <v>41</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>12</v>
@@ -2247,19 +2245,19 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="20"/>
       <c r="K12" s="0" t="n">
@@ -2273,7 +2271,7 @@
         <v>41</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>12</v>
@@ -2282,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2290,25 +2288,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>3</v>
@@ -2320,7 +2318,7 @@
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9" t="s">
@@ -2330,7 +2328,7 @@
         <v>16</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2354,29 +2352,29 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.9348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.1023255813954"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.1627906976744"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.4418604651163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,37 +2385,37 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>34</v>
@@ -2432,10 +2430,10 @@
         <v>37</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,37 +2441,37 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>85</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="L2" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>15</v>
@@ -2496,22 +2494,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>65</v>
@@ -2554,9 +2552,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>31</v>
@@ -2585,10 +2583,10 @@
         <v>37</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -719,14 +720,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1627906976744"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="45.0418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.1488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="46.2697674418605"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,20 +1096,20 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0697674418605"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="120.106976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="70.7627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.9162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="123.8"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="72.8511627906977"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,21 +1189,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="80.8511627906977"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.0558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.3116279069767"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="61.7767441860465"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,21 +1362,21 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="123.432558139535"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="127.120930232558"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.8976744186047"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,7 +1686,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>58</v>
@@ -1722,25 +1723,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="37.0418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.24651162790698"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="38.1488372093023"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="38.0279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="39.2558139534884"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,29 +2353,29 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.1023255813954"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.1627906976744"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.5767441860465"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.3953488372093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,9 +2553,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
